--- a/admin/telemarketing_stuff/Tanggal Aktif Nomor.xlsx
+++ b/admin/telemarketing_stuff/Tanggal Aktif Nomor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ucup_d\yabuki\admin\telemarketing_stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EB742F-7158-4BE1-A10C-7BAE70129D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F8E625-C0FE-422D-B39A-FB9D68013F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,12 +361,12 @@
   <dimension ref="B3:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -374,7 +374,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>44669</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -382,7 +382,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>44671</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -390,17 +390,23 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>44670</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="1">
+        <v>44702</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44721</v>
       </c>
     </row>
   </sheetData>
